--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StarPublicSchool.edu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2C72CC-BEA1-4083-A8B3-5A1FB88CC963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70FB1D-9C6C-489E-811D-8746C5EC4764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_1st" sheetId="1" r:id="rId1"/>
@@ -2471,7 +2471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q509"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
@@ -20505,8 +20505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -10,7 +10,7 @@
     <sheet name="result_1st" sheetId="1" r:id="rId1"/>
     <sheet name="result_2nd" sheetId="2" r:id="rId2"/>
     <sheet name="result_3rd" sheetId="3" r:id="rId3"/>
-    <sheet name="result_Annual" sheetId="4" r:id="rId4"/>
+    <sheet name="result_annual" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -73155,7 +73155,7 @@
   <dimension ref="A1:M599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11438" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11439" uniqueCount="898">
   <si>
     <t>Class</t>
   </si>
@@ -73154,8 +73154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M599"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A564" workbookViewId="0">
+      <selection activeCell="M599" sqref="M599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -96260,8 +96260,12 @@
       <c r="K599" s="11">
         <v>56</v>
       </c>
-      <c r="L599" s="11"/>
-      <c r="M599" s="11"/>
+      <c r="L599" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M599" s="11">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11439" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11434" uniqueCount="898">
   <si>
     <t>Class</t>
   </si>
@@ -2662,9 +2662,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>ARADHAYA KUMARI</t>
-  </si>
-  <si>
     <t>MD AATIF</t>
   </si>
   <si>
@@ -2711,6 +2708,9 @@
   </si>
   <si>
     <t>__</t>
+  </si>
+  <si>
+    <t>MALTI KUMARI</t>
   </si>
 </sst>
 </file>
@@ -2786,7 +2786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2819,9 +2819,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3129,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N522"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3191,11 +3188,11 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>315</v>
+      <c r="C2" s="11" t="s">
+        <v>897</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -20944,7 +20941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N561"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A526" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
@@ -21006,10 +21003,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
@@ -42148,8 +42145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42212,10 +42209,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>16</v>
@@ -52110,9 +52107,7 @@
       <c r="C242" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D242" s="9" t="s">
-        <v>880</v>
-      </c>
+      <c r="D242" s="9"/>
       <c r="E242" s="9">
         <v>60</v>
       </c>
@@ -52152,9 +52147,7 @@
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
       <c r="H243" s="9"/>
-      <c r="I243" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="I243" s="9"/>
       <c r="J243" s="9"/>
       <c r="K243" s="9"/>
       <c r="L243" s="9"/>
@@ -52170,12 +52163,8 @@
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
-      <c r="H244" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="I244" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="H244" s="9"/>
+      <c r="I244" s="9"/>
       <c r="J244" s="9"/>
       <c r="K244" s="9"/>
       <c r="L244" s="9"/>
@@ -73154,8 +73143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A564" workbookViewId="0">
-      <selection activeCell="M599" sqref="M599"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -73213,10 +73202,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="E2" s="11">
         <v>48</v>
@@ -74934,7 +74923,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
@@ -75576,7 +75565,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
@@ -75615,7 +75604,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
@@ -75654,7 +75643,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
@@ -75693,7 +75682,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
@@ -75732,7 +75721,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
@@ -75810,7 +75799,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
@@ -77705,7 +77694,7 @@
         <v>47</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
@@ -79608,7 +79597,7 @@
         <v>46</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>880</v>
@@ -79649,7 +79638,7 @@
         <v>47</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="11">
@@ -81562,7 +81551,7 @@
         <v>47</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D217" s="11"/>
       <c r="E217" s="11">
@@ -81601,7 +81590,7 @@
         <v>48</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D218" s="11"/>
       <c r="E218" s="11">
@@ -82987,7 +82976,7 @@
         <v>34</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D255" s="11"/>
       <c r="E255" s="11">
@@ -83026,7 +83015,7 @@
         <v>35</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D256" s="11"/>
       <c r="E256" s="11">
@@ -86128,7 +86117,7 @@
         <v>37</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D336" s="11"/>
       <c r="E336" s="11">
@@ -86853,7 +86842,7 @@
         <v>18</v>
       </c>
       <c r="M356" s="11" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -92346,8 +92335,8 @@
       <c r="J494" s="11">
         <v>62</v>
       </c>
-      <c r="K494" s="11" t="s">
-        <v>16</v>
+      <c r="K494" s="11">
+        <v>86</v>
       </c>
       <c r="L494" s="11" t="s">
         <v>18</v>
@@ -93102,7 +93091,9 @@
       <c r="C513" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="D513" s="11"/>
+      <c r="D513" s="11" t="s">
+        <v>818</v>
+      </c>
       <c r="E513" s="11">
         <v>70</v>
       </c>
@@ -93142,8 +93133,8 @@
         <v>479</v>
       </c>
       <c r="D514" s="11"/>
-      <c r="E514" s="11">
-        <v>52</v>
+      <c r="E514" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F514" s="11" t="s">
         <v>16</v>
@@ -93160,8 +93151,8 @@
       <c r="J514" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K514" s="11">
-        <v>86</v>
+      <c r="K514" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="L514" s="11" t="s">
         <v>18</v>
@@ -93242,8 +93233,8 @@
       <c r="J516" s="11">
         <v>70</v>
       </c>
-      <c r="K516" s="11" t="s">
-        <v>16</v>
+      <c r="K516" s="11">
+        <v>50</v>
       </c>
       <c r="L516" s="11" t="s">
         <v>18</v>
@@ -93324,8 +93315,8 @@
       <c r="J518" s="11">
         <v>80</v>
       </c>
-      <c r="K518" s="11" t="s">
-        <v>16</v>
+      <c r="K518" s="11">
+        <v>85</v>
       </c>
       <c r="L518" s="11" t="s">
         <v>18</v>
@@ -94306,7 +94297,9 @@
       <c r="C545" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="D545" s="11"/>
+      <c r="D545" s="11" t="s">
+        <v>807</v>
+      </c>
       <c r="E545" s="11">
         <v>50</v>
       </c>
@@ -95976,8 +95969,8 @@
       <c r="D592" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="E592" s="11" t="s">
-        <v>16</v>
+      <c r="E592" s="11">
+        <v>88</v>
       </c>
       <c r="F592" s="11">
         <v>55</v>
@@ -96035,8 +96028,8 @@
       <c r="J593" s="11">
         <v>98</v>
       </c>
-      <c r="K593" s="11" t="s">
-        <v>16</v>
+      <c r="K593" s="11">
+        <v>85</v>
       </c>
       <c r="L593" s="11" t="s">
         <v>18</v>
@@ -96121,7 +96114,9 @@
       <c r="L595" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M595" s="11"/>
+      <c r="M595" s="11">
+        <v>70</v>
+      </c>
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596" s="11" t="s">

--- a/results.xlsx
+++ b/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11434" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11435" uniqueCount="898">
   <si>
     <t>Class</t>
   </si>
@@ -73143,8 +73143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M599"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -74324,7 +74324,9 @@
       <c r="C30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>880</v>
+      </c>
       <c r="E30" s="11" t="s">
         <v>16</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -42145,8 +42145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A566" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B584"/>
+    <sheetView topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="B463" sqref="B463:B505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73143,8 +73143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
+      <selection activeCell="B478" sqref="B478:B520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -91654,7 +91654,7 @@
       <c r="A478" s="11">
         <v>3</v>
       </c>
-      <c r="B478" s="11">
+      <c r="B478" s="9">
         <v>1</v>
       </c>
       <c r="C478" s="11" t="s">
@@ -91695,7 +91695,7 @@
       <c r="A479" s="11">
         <v>3</v>
       </c>
-      <c r="B479" s="11">
+      <c r="B479" s="9">
         <v>2</v>
       </c>
       <c r="C479" s="11" t="s">
@@ -91736,7 +91736,7 @@
       <c r="A480" s="11">
         <v>3</v>
       </c>
-      <c r="B480" s="11">
+      <c r="B480" s="9">
         <v>3</v>
       </c>
       <c r="C480" s="11" t="s">
@@ -91777,7 +91777,7 @@
       <c r="A481" s="11">
         <v>3</v>
       </c>
-      <c r="B481" s="11">
+      <c r="B481" s="9">
         <v>4</v>
       </c>
       <c r="C481" s="11" t="s">
@@ -91818,8 +91818,8 @@
       <c r="A482" s="11">
         <v>3</v>
       </c>
-      <c r="B482" s="11">
-        <v>5</v>
+      <c r="B482" s="9">
+        <v>7</v>
       </c>
       <c r="C482" s="11" t="s">
         <v>447</v>
@@ -91859,8 +91859,8 @@
       <c r="A483" s="11">
         <v>3</v>
       </c>
-      <c r="B483" s="11">
-        <v>6</v>
+      <c r="B483" s="9">
+        <v>9</v>
       </c>
       <c r="C483" s="11" t="s">
         <v>448</v>
@@ -91900,8 +91900,8 @@
       <c r="A484" s="11">
         <v>3</v>
       </c>
-      <c r="B484" s="11">
-        <v>7</v>
+      <c r="B484" s="9">
+        <v>10</v>
       </c>
       <c r="C484" s="11" t="s">
         <v>449</v>
@@ -91941,8 +91941,8 @@
       <c r="A485" s="11">
         <v>3</v>
       </c>
-      <c r="B485" s="11">
-        <v>8</v>
+      <c r="B485" s="9">
+        <v>11</v>
       </c>
       <c r="C485" s="11" t="s">
         <v>450</v>
@@ -91982,8 +91982,8 @@
       <c r="A486" s="11">
         <v>3</v>
       </c>
-      <c r="B486" s="11">
-        <v>9</v>
+      <c r="B486" s="9">
+        <v>12</v>
       </c>
       <c r="C486" s="11" t="s">
         <v>451</v>
@@ -92023,8 +92023,8 @@
       <c r="A487" s="11">
         <v>3</v>
       </c>
-      <c r="B487" s="11">
-        <v>10</v>
+      <c r="B487" s="9">
+        <v>13</v>
       </c>
       <c r="C487" s="11" t="s">
         <v>452</v>
@@ -92064,8 +92064,8 @@
       <c r="A488" s="11">
         <v>3</v>
       </c>
-      <c r="B488" s="11">
-        <v>11</v>
+      <c r="B488" s="9">
+        <v>14</v>
       </c>
       <c r="C488" s="11" t="s">
         <v>453</v>
@@ -92105,8 +92105,8 @@
       <c r="A489" s="11">
         <v>3</v>
       </c>
-      <c r="B489" s="11">
-        <v>12</v>
+      <c r="B489" s="9">
+        <v>15</v>
       </c>
       <c r="C489" s="11" t="s">
         <v>454</v>
@@ -92146,8 +92146,8 @@
       <c r="A490" s="11">
         <v>3</v>
       </c>
-      <c r="B490" s="11">
-        <v>13</v>
+      <c r="B490" s="9">
+        <v>16</v>
       </c>
       <c r="C490" s="11" t="s">
         <v>455</v>
@@ -92187,8 +92187,8 @@
       <c r="A491" s="11">
         <v>3</v>
       </c>
-      <c r="B491" s="11">
-        <v>14</v>
+      <c r="B491" s="9">
+        <v>18</v>
       </c>
       <c r="C491" s="11" t="s">
         <v>456</v>
@@ -92228,8 +92228,8 @@
       <c r="A492" s="11">
         <v>3</v>
       </c>
-      <c r="B492" s="11">
-        <v>15</v>
+      <c r="B492" s="9">
+        <v>19</v>
       </c>
       <c r="C492" s="11" t="s">
         <v>457</v>
@@ -92269,8 +92269,8 @@
       <c r="A493" s="11">
         <v>3</v>
       </c>
-      <c r="B493" s="11">
-        <v>16</v>
+      <c r="B493" s="9">
+        <v>20</v>
       </c>
       <c r="C493" s="11" t="s">
         <v>297</v>
@@ -92310,8 +92310,8 @@
       <c r="A494" s="11">
         <v>3</v>
       </c>
-      <c r="B494" s="11">
-        <v>17</v>
+      <c r="B494" s="9">
+        <v>21</v>
       </c>
       <c r="C494" s="11" t="s">
         <v>458</v>
@@ -92351,8 +92351,8 @@
       <c r="A495" s="11">
         <v>3</v>
       </c>
-      <c r="B495" s="11">
-        <v>18</v>
+      <c r="B495" s="9">
+        <v>22</v>
       </c>
       <c r="C495" s="11" t="s">
         <v>459</v>
@@ -92392,8 +92392,8 @@
       <c r="A496" s="11">
         <v>3</v>
       </c>
-      <c r="B496" s="11">
-        <v>19</v>
+      <c r="B496" s="9">
+        <v>23</v>
       </c>
       <c r="C496" s="11" t="s">
         <v>460</v>
@@ -92433,8 +92433,8 @@
       <c r="A497" s="11">
         <v>3</v>
       </c>
-      <c r="B497" s="11">
-        <v>20</v>
+      <c r="B497" s="9">
+        <v>24</v>
       </c>
       <c r="C497" s="11" t="s">
         <v>461</v>
@@ -92474,8 +92474,8 @@
       <c r="A498" s="11">
         <v>3</v>
       </c>
-      <c r="B498" s="11">
-        <v>21</v>
+      <c r="B498" s="9">
+        <v>25</v>
       </c>
       <c r="C498" s="11" t="s">
         <v>462</v>
@@ -92515,8 +92515,8 @@
       <c r="A499" s="11">
         <v>3</v>
       </c>
-      <c r="B499" s="11">
-        <v>22</v>
+      <c r="B499" s="9">
+        <v>26</v>
       </c>
       <c r="C499" s="11" t="s">
         <v>463</v>
@@ -92556,8 +92556,8 @@
       <c r="A500" s="11">
         <v>3</v>
       </c>
-      <c r="B500" s="11">
-        <v>23</v>
+      <c r="B500" s="9">
+        <v>28</v>
       </c>
       <c r="C500" s="11" t="s">
         <v>464</v>
@@ -92597,8 +92597,8 @@
       <c r="A501" s="11">
         <v>3</v>
       </c>
-      <c r="B501" s="11">
-        <v>24</v>
+      <c r="B501" s="9">
+        <v>29</v>
       </c>
       <c r="C501" s="11" t="s">
         <v>465</v>
@@ -92638,8 +92638,8 @@
       <c r="A502" s="11">
         <v>3</v>
       </c>
-      <c r="B502" s="11">
-        <v>25</v>
+      <c r="B502" s="9">
+        <v>30</v>
       </c>
       <c r="C502" s="11" t="s">
         <v>466</v>
@@ -92679,8 +92679,8 @@
       <c r="A503" s="11">
         <v>3</v>
       </c>
-      <c r="B503" s="11">
-        <v>26</v>
+      <c r="B503" s="9">
+        <v>31</v>
       </c>
       <c r="C503" s="11" t="s">
         <v>467</v>
@@ -92720,8 +92720,8 @@
       <c r="A504" s="11">
         <v>3</v>
       </c>
-      <c r="B504" s="11">
-        <v>27</v>
+      <c r="B504" s="9">
+        <v>32</v>
       </c>
       <c r="C504" s="11" t="s">
         <v>468</v>
@@ -92761,8 +92761,8 @@
       <c r="A505" s="11">
         <v>3</v>
       </c>
-      <c r="B505" s="11">
-        <v>28</v>
+      <c r="B505" s="9">
+        <v>34</v>
       </c>
       <c r="C505" s="11" t="s">
         <v>470</v>
@@ -92802,8 +92802,8 @@
       <c r="A506" s="11">
         <v>3</v>
       </c>
-      <c r="B506" s="11">
-        <v>29</v>
+      <c r="B506" s="9">
+        <v>35</v>
       </c>
       <c r="C506" s="11" t="s">
         <v>471</v>
@@ -92843,8 +92843,8 @@
       <c r="A507" s="11">
         <v>3</v>
       </c>
-      <c r="B507" s="11">
-        <v>30</v>
+      <c r="B507" s="9">
+        <v>36</v>
       </c>
       <c r="C507" s="11" t="s">
         <v>472</v>
@@ -92884,8 +92884,8 @@
       <c r="A508" s="11">
         <v>3</v>
       </c>
-      <c r="B508" s="11">
-        <v>31</v>
+      <c r="B508" s="9">
+        <v>37</v>
       </c>
       <c r="C508" s="11" t="s">
         <v>473</v>
@@ -92925,8 +92925,8 @@
       <c r="A509" s="11">
         <v>3</v>
       </c>
-      <c r="B509" s="11">
-        <v>32</v>
+      <c r="B509" s="9">
+        <v>39</v>
       </c>
       <c r="C509" s="11" t="s">
         <v>474</v>
@@ -92966,8 +92966,8 @@
       <c r="A510" s="11">
         <v>3</v>
       </c>
-      <c r="B510" s="11">
-        <v>33</v>
+      <c r="B510" s="9">
+        <v>40</v>
       </c>
       <c r="C510" s="11" t="s">
         <v>475</v>
@@ -93007,8 +93007,8 @@
       <c r="A511" s="11">
         <v>3</v>
       </c>
-      <c r="B511" s="11">
-        <v>34</v>
+      <c r="B511" s="9">
+        <v>41</v>
       </c>
       <c r="C511" s="11" t="s">
         <v>476</v>
@@ -93048,8 +93048,8 @@
       <c r="A512" s="11">
         <v>3</v>
       </c>
-      <c r="B512" s="11">
-        <v>35</v>
+      <c r="B512" s="9">
+        <v>42</v>
       </c>
       <c r="C512" s="11" t="s">
         <v>477</v>
@@ -93087,8 +93087,8 @@
       <c r="A513" s="11">
         <v>3</v>
       </c>
-      <c r="B513" s="11">
-        <v>36</v>
+      <c r="B513" s="9">
+        <v>43</v>
       </c>
       <c r="C513" s="11" t="s">
         <v>478</v>
@@ -93128,8 +93128,8 @@
       <c r="A514" s="11">
         <v>3</v>
       </c>
-      <c r="B514" s="11">
-        <v>37</v>
+      <c r="B514" s="9">
+        <v>44</v>
       </c>
       <c r="C514" s="11" t="s">
         <v>479</v>
@@ -93167,8 +93167,8 @@
       <c r="A515" s="11">
         <v>3</v>
       </c>
-      <c r="B515" s="11">
-        <v>38</v>
+      <c r="B515" s="9">
+        <v>45</v>
       </c>
       <c r="C515" s="11" t="s">
         <v>480</v>
@@ -93208,8 +93208,8 @@
       <c r="A516" s="11">
         <v>3</v>
       </c>
-      <c r="B516" s="11">
-        <v>39</v>
+      <c r="B516" s="9">
+        <v>46</v>
       </c>
       <c r="C516" s="11" t="s">
         <v>481</v>
@@ -93249,8 +93249,8 @@
       <c r="A517" s="11">
         <v>3</v>
       </c>
-      <c r="B517" s="11">
-        <v>40</v>
+      <c r="B517" s="9">
+        <v>47</v>
       </c>
       <c r="C517" s="11" t="s">
         <v>821</v>
@@ -93290,8 +93290,8 @@
       <c r="A518" s="11">
         <v>3</v>
       </c>
-      <c r="B518" s="11">
-        <v>41</v>
+      <c r="B518" s="9">
+        <v>48</v>
       </c>
       <c r="C518" s="11" t="s">
         <v>326</v>
@@ -93331,8 +93331,8 @@
       <c r="A519" s="11">
         <v>3</v>
       </c>
-      <c r="B519" s="11">
-        <v>42</v>
+      <c r="B519" s="9">
+        <v>49</v>
       </c>
       <c r="C519" s="11" t="s">
         <v>824</v>
@@ -93372,8 +93372,8 @@
       <c r="A520" s="11">
         <v>3</v>
       </c>
-      <c r="B520" s="11">
-        <v>43</v>
+      <c r="B520" s="9">
+        <v>50</v>
       </c>
       <c r="C520" s="11" t="s">
         <v>826</v>
